--- a/output/Sanirajak/k_6/clusters_data.xlsx
+++ b/output/Sanirajak/k_6/clusters_data.xlsx
@@ -20,12 +20,273 @@
     <t>Cluster ID</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
     <t>158</t>
   </si>
   <si>
     <t>156</t>
   </si>
   <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
     <t>157</t>
   </si>
   <si>
@@ -35,6 +296,21 @@
     <t>320</t>
   </si>
   <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
     <t>319</t>
   </si>
   <si>
@@ -47,6 +323,9 @@
     <t>311</t>
   </si>
   <si>
+    <t>302</t>
+  </si>
+  <si>
     <t>323</t>
   </si>
   <si>
@@ -80,340 +359,61 @@
     <t>312</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
     <t>111</t>
   </si>
   <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
     <t>149</t>
   </si>
   <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
     <t>135</t>
   </si>
   <si>
     <t>125</t>
   </si>
   <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
     <t>110</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>129</t>
+    <t>120</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>105</t>
   </si>
   <si>
     <t>124</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>402</t>
-  </si>
-  <si>
-    <t>406</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>283</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>282</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>284</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>286</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>285</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>277</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>287</t>
-  </si>
-  <si>
-    <t>407</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>403</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>405</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>324</t>
-  </si>
-  <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>316</t>
-  </si>
-  <si>
-    <t>314</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>141</t>
   </si>
 </sst>
 </file>
@@ -785,49 +785,43 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>17</v>
-      </c>
-      <c r="S2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:50">
@@ -835,49 +829,151 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>29</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>30</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>31</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s">
         <v>32</v>
       </c>
-      <c r="N3" t="s">
+      <c r="R3" t="s">
         <v>33</v>
       </c>
-      <c r="O3" t="s">
+      <c r="S3" t="s">
         <v>34</v>
       </c>
-      <c r="P3" t="s">
-        <v>24</v>
+      <c r="T3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:50">
@@ -885,46 +981,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>76</v>
+      </c>
+      <c r="P4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:50">
@@ -932,151 +1031,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O5" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>63</v>
-      </c>
-      <c r="R5" t="s">
-        <v>64</v>
-      </c>
-      <c r="S5" t="s">
-        <v>65</v>
-      </c>
-      <c r="T5" t="s">
-        <v>66</v>
-      </c>
-      <c r="U5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V5" t="s">
-        <v>67</v>
-      </c>
-      <c r="W5" t="s">
-        <v>68</v>
-      </c>
-      <c r="X5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM5" t="s">
         <v>84</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:50">
@@ -1084,55 +1060,91 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" t="s">
         <v>95</v>
       </c>
-      <c r="C6" t="s">
+      <c r="M6" t="s">
         <v>96</v>
       </c>
-      <c r="D6" t="s">
+      <c r="N6" t="s">
         <v>97</v>
       </c>
-      <c r="E6" t="s">
+      <c r="O6" t="s">
         <v>98</v>
       </c>
-      <c r="F6" t="s">
+      <c r="P6" t="s">
         <v>99</v>
       </c>
-      <c r="G6" t="s">
+      <c r="Q6" t="s">
         <v>100</v>
       </c>
-      <c r="H6" t="s">
+      <c r="R6" t="s">
         <v>101</v>
       </c>
-      <c r="I6" t="s">
+      <c r="S6" t="s">
         <v>102</v>
       </c>
-      <c r="J6" t="s">
+      <c r="T6" t="s">
         <v>103</v>
       </c>
-      <c r="K6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="U6" t="s">
         <v>104</v>
       </c>
-      <c r="M6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="V6" t="s">
         <v>105</v>
       </c>
-      <c r="O6" t="s">
+      <c r="W6" t="s">
         <v>106</v>
       </c>
-      <c r="P6" t="s">
+      <c r="X6" t="s">
         <v>107</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Y6" t="s">
         <v>108</v>
       </c>
-      <c r="R6" t="s">
+      <c r="Z6" t="s">
         <v>109</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:50">
@@ -1140,72 +1152,60 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="R7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="S7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="T7" t="s">
-        <v>128</v>
-      </c>
-      <c r="U7" t="s">
-        <v>129</v>
-      </c>
-      <c r="V7" t="s">
-        <v>130</v>
-      </c>
-      <c r="W7" t="s">
-        <v>131</v>
-      </c>
-      <c r="X7" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1216,53 +1216,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1270,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1281,10 +1290,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
